--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.0847757954335238</v>
+        <v>-0.293184472305921</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.77153212147397</v>
+        <v>-1.754857094393178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.858374195763093</v>
+        <v>-1.712850845331652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.403985962229845</v>
+        <v>-1.305765392522845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01449543809816686</v>
+        <v>-0.04066482794474612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1305003370193479</v>
+        <v>-0.1377086974436194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1403505691249712</v>
+        <v>-0.1292012434515621</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09239909844016009</v>
+        <v>-0.0869263899005413</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.331388977186591</v>
+        <v>5.083033058767528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.546833782759818</v>
+        <v>5.590468369684732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.774541288420703</v>
+        <v>5.903080068869664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.766344217712412</v>
+        <v>4.847219056990749</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.160432759013791</v>
+        <v>1.132338625034992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5400132664099693</v>
+        <v>0.5385658541701058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5621823216288105</v>
+        <v>0.5724857421936308</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4129983726021234</v>
+        <v>0.4129426687134638</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8265070488291136</v>
+        <v>0.7371961601508725</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.297180749026785</v>
+        <v>-1.282165755222228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3720899433075304</v>
+        <v>-0.4154291914102952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.2373873654278921</v>
+        <v>-0.3759329031975998</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1141115537035986</v>
+        <v>0.1039255500458116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1116823798137938</v>
+        <v>-0.1138354599537647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04529807550656845</v>
+        <v>-0.03615339607848973</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01890646272672636</v>
+        <v>-0.02886259038010864</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.589493100975584</v>
+        <v>5.734138976714643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.375396016675231</v>
+        <v>4.280642283797561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.332522333955774</v>
+        <v>5.428729526065919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.62256905014582</v>
+        <v>4.723781507273628</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.156205497512423</v>
+        <v>1.164557308879821</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5238767461208143</v>
+        <v>0.5079255129123817</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6315405641335355</v>
+        <v>0.6626592243205421</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4751601909879221</v>
+        <v>0.4859991148289198</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.657997505089047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.4790321220658547</v>
+        <v>-0.4790321220658603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3468737688166392</v>
@@ -849,7 +849,7 @@
         <v>-0.1744890606018494</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.0401248070905058</v>
+        <v>-0.04012480709050625</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5012312413884887</v>
+        <v>-0.7394065575911881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0848890118787393</v>
+        <v>0.1986231548994453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.620521293399229</v>
+        <v>-4.671328430887566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.381063183529656</v>
+        <v>-3.349840024423521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08476035940092246</v>
+        <v>-0.1164950415134359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0008199997904493072</v>
+        <v>0.01358152992616136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4229717541869284</v>
+        <v>-0.4193569457581147</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2465078264281833</v>
+        <v>-0.2460583292274563</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.523301283664181</v>
+        <v>4.877869247647464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.840978650179153</v>
+        <v>6.963761218685398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.395794133429623</v>
+        <v>1.167939406107159</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.535025078993447</v>
+        <v>2.503412989271813</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.077613254889015</v>
+        <v>1.150612296783167</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9004905346827649</v>
+        <v>0.9261360756191547</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1798590308272173</v>
+        <v>0.1458829103234238</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2398107895089518</v>
+        <v>0.2387085659444986</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.261680523557885</v>
+        <v>-1.18412706243717</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.739116397003194</v>
+        <v>-1.330664080108641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6378887104761106</v>
+        <v>0.4916708828873167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8668901704125663</v>
+        <v>0.8304664311012109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1843584677994531</v>
+        <v>-0.178654927780108</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1466701386403496</v>
+        <v>-0.1153479439653828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07010652734494888</v>
+        <v>0.05265564166285772</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0641351630418075</v>
+        <v>0.05697172984172892</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.945417440341396</v>
+        <v>3.047412714295711</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.166496871017656</v>
+        <v>4.526965142048208</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.962386557869107</v>
+        <v>5.682480878279836</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.940269508816773</v>
+        <v>5.893255907709916</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5849352883922094</v>
+        <v>0.6107322752592264</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4686294632504427</v>
+        <v>0.5093452114100009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9456819719317863</v>
+        <v>0.9543977061231727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.557652857465129</v>
+        <v>0.5548925178632269</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9320747776324295</v>
+        <v>0.8554060347013224</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2095865278119729</v>
+        <v>0.3287735678141615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1086880654734715</v>
+        <v>0.056609429533083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.493920034988843</v>
+        <v>0.5360673573973981</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1399649498305195</v>
+        <v>0.1329902910180228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01845352899749561</v>
+        <v>0.03025938857046378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01090922633783723</v>
+        <v>0.001885153183015408</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03981393110920547</v>
+        <v>0.04191158397553388</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.320612207200425</v>
+        <v>3.405562215966117</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.579369124451453</v>
+        <v>3.434768977451878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.129058521308277</v>
+        <v>3.036229887144141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.236210084376716</v>
+        <v>3.243753489656306</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.64178733338521</v>
+        <v>0.6418022395701427</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3734532141560775</v>
+        <v>0.3633421201876718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3613314305784512</v>
+        <v>0.3477681479768569</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2949433804072215</v>
+        <v>0.2926923508432675</v>
       </c>
     </row>
     <row r="19">
